--- a/stimuli_en/multipleye-other-screens-en.xlsx
+++ b/stimuli_en/multipleye-other-screens-en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BAF94C-BAC4-C340-9451-E9776BA23002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9BC0B-B005-1E44-A75E-64500CC3790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{367FC362-8E62-214D-8B47-8D2B5F85E7DC}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{367FC362-8E62-214D-8B47-8D2B5F85E7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>other_screen_id</t>
   </si>
@@ -84,12 +84,6 @@
     <t>fixation dot in top left corner</t>
   </si>
   <si>
-    <t>This is the end of the practice part. If you are ready we will start with the experiment. Please try to move as little as possible while reading the texts.</t>
-  </si>
-  <si>
-    <t>We will start with 2 additional practice texts now so that you know how everything works.</t>
-  </si>
-  <si>
     <t>&lt;break?&gt;</t>
   </si>
   <si>
@@ -102,13 +96,30 @@
     <t xml:space="preserve">This screen will be shown at the beginning of the exp (the practice stimuli) after the camera setup and the calibration. </t>
   </si>
   <si>
-    <t>Right bevore practice stimuli</t>
-  </si>
-  <si>
     <t>After practice stimuli, before first stimulus</t>
   </si>
   <si>
-    <t>In this experiment you will read a series of 12 texts. Each text is divided into multiple pages. Please read the text as you would read any other text. When you are finished with one page, look at the bottom right edge of the screen and press the space bar. Then the next page will appear. After each text you will have to answer a few multiple choice questions about the text. You can use the keyboard to pick an answer. You won't be able to go back to a page or a question you have already read.</t>
+    <t>We will start with two additional practice texts now so that you know how the experiment works.</t>
+  </si>
+  <si>
+    <t>This is the end of the practice part. If you are ready, we will start with the experiment. Please try to move as little as possible while reading the texts in order to avoid re-calibrations of the eye-tracker.</t>
+  </si>
+  <si>
+    <t>Right before practice stimuli</t>
+  </si>
+  <si>
+    <t>informed_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to start with the experiment, you will have to read and sign a form where we explain how we are going to use the data. The experimenter will ask you to do so now. </t>
+  </si>
+  <si>
+    <t>Shown directly after the welcome screen. Participants need to sign the informed consent.</t>
+  </si>
+  <si>
+    <t>In this experiment you will read a series of texts of differing length. Each text is divided into multiple pages (screens). Please read the text as you would read any other text. When you are finished with one page, look at the bottom right corner of the screen and press the **space bar.** Then the next page will appear. After each text you will have to answer a few multiple choice questions about the text. You can use the keyboard to pick an answer. **You won't be able to go back to a page or a question you have already read.**
+Right before each new text screen there is a fixation dot shown at the top left corner of the screen. The next page will only appear if you steadily look at the dot.
+In between two texts there might be a re-calibration.</t>
   </si>
 </sst>
 </file>
@@ -463,9 +474,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4762EDE-1640-DB49-8F78-C5CE73D6EDB8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -474,7 +485,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="62.5" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -502,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -535,10 +546,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -553,7 +564,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -561,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -575,10 +586,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -589,10 +600,24 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli_en/multipleye-other-screens-en.xlsx
+++ b/stimuli_en/multipleye-other-screens-en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9BC0B-B005-1E44-A75E-64500CC3790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA4DCCF-5756-DF47-8C36-559E8A608C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{367FC362-8E62-214D-8B47-8D2B5F85E7DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{367FC362-8E62-214D-8B47-8D2B5F85E7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,13 +108,14 @@
     <t>Right before practice stimuli</t>
   </si>
   <si>
-    <t>informed_consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In order to start with the experiment, you will have to read and sign a form where we explain how we are going to use the data. The experimenter will ask you to do so now. </t>
-  </si>
-  <si>
     <t>Shown directly after the welcome screen. Participants need to sign the informed consent.</t>
+  </si>
+  <si>
+    <t>informed_consent_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to start with the experiment, you will have to read and sign a form where we explain how we are going to use the data. 
+The experimenter will ask you to do so now. </t>
   </si>
   <si>
     <t>In this experiment you will read a series of texts of differing length. Each text is divided into multiple pages (screens). Please read the text as you would read any other text. When you are finished with one page, look at the bottom right corner of the screen and press the **space bar.** Then the next page will appear. After each text you will have to answer a few multiple choice questions about the text. You can use the keyboard to pick an answer. **You won't be able to go back to a page or a question you have already read.**
@@ -476,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4762EDE-1640-DB49-8F78-C5CE73D6EDB8}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +565,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -606,18 +607,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli_en/multipleye-other-screens-en.xlsx
+++ b/stimuli_en/multipleye-other-screens-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA4DCCF-5756-DF47-8C36-559E8A608C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A9EF16-76B4-594F-A787-CF657A88DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{367FC362-8E62-214D-8B47-8D2B5F85E7DC}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>We will start with two additional practice texts now so that you know how the experiment works.</t>
   </si>
   <si>
-    <t>This is the end of the practice part. If you are ready, we will start with the experiment. Please try to move as little as possible while reading the texts in order to avoid re-calibrations of the eye-tracker.</t>
-  </si>
-  <si>
     <t>Right before practice stimuli</t>
   </si>
   <si>
@@ -118,9 +115,13 @@
 The experimenter will ask you to do so now. </t>
   </si>
   <si>
+    <t>This is the end of the practice part. If you are ready, we will start with the experiment. Please try to move as little as possible while reading the texts in order to avoid re-calibrations of the eye-tracker.
+Please press space if you are ready.</t>
+  </si>
+  <si>
     <t>In this experiment you will read a series of texts of differing length. Each text is divided into multiple pages (screens). Please read the text as you would read any other text. When you are finished with one page, look at the bottom right corner of the screen and press the **space bar.** Then the next page will appear. After each text you will have to answer a few multiple choice questions about the text. You can use the keyboard to pick an answer. **You won't be able to go back to a page or a question you have already read.**
-Right before each new text screen there is a fixation dot shown at the top left corner of the screen. The next page will only appear if you steadily look at the dot.
-In between two texts there might be a re-calibration.</t>
+Right before each new text screen there is a fixation dot shown at the top left corner of the screen. The next page will only appear if you steadily look at the dot. In between two texts there might be a re-calibration.
+Please press space if you are ready.</t>
   </si>
 </sst>
 </file>
@@ -478,7 +479,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +566,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -590,10 +591,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -601,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -612,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
